--- a/build/website/CodeSystem-nmdp-rh-status-cs.xlsx
+++ b/build/website/CodeSystem-nmdp-rh-status-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T09:36:20-05:00</t>
+    <t>2022-05-26T13:36:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>NMDP Code System for Rh Status</t>
+    <t>Code System for NMDP Rh Status</t>
   </si>
   <si>
     <t>Purpose</t>
